--- a/data/trans_camb/P43E-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P43E-Clase-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-16.78398621420525</v>
+        <v>-16.65641473665979</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.00456031958158</v>
+        <v>-0.8883757397353278</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8056913711853004</v>
+        <v>0.8173294788766173</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.30419381537131</v>
+        <v>17.13577953516442</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3892831255152926</v>
+        <v>-0.3802074501575249</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02193944097801817</v>
+        <v>-0.01859003017403644</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.02554867010965743</v>
+        <v>0.03314996965401952</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5158151869306505</v>
+        <v>0.5112912227128337</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>-7.867058567913254</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.215043889157464</v>
+        <v>2.21504388915747</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-16.35642723373898</v>
+        <v>-16.2597883581219</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.832949073985634</v>
+        <v>-7.182578492776982</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2449622796313015</v>
+        <v>0.5496801023299641</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.49864233841698</v>
+        <v>10.05279630232376</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>-0.2113275909139491</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.05950125892967329</v>
+        <v>0.05950125892967344</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3868560322499463</v>
+        <v>-0.3869776729729575</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1624572271598411</v>
+        <v>-0.1734658783462449</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.008972170785903686</v>
+        <v>0.01780658131104431</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3221119945145388</v>
+        <v>0.3180672271921576</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-23.22368566286021</v>
+        <v>-23.69435249422163</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.634179422134881</v>
+        <v>-8.611423227923094</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.39360071307882</v>
+        <v>-4.521788754025588</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.53563399419909</v>
+        <v>13.21929923524109</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7179570868435071</v>
+        <v>-0.7240181471754487</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3008210512852386</v>
+        <v>-0.2567830375704317</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1842431167666573</v>
+        <v>-0.1821229950939476</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5588727327052652</v>
+        <v>0.5821386642474525</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>-5.108509845108627</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-2.619678981173501</v>
+        <v>-2.619678981173506</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.52749769274266</v>
+        <v>-10.06880129759705</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.828946825919862</v>
+        <v>-7.882372904745716</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.294591351596809</v>
+        <v>0.01712309779495626</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.348920317544449</v>
+        <v>3.07104745231752</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>-0.2502874926484949</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.1283491475248272</v>
+        <v>-0.1283491475248274</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4443177629746783</v>
+        <v>-0.4406832509208116</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3355045880787198</v>
+        <v>-0.343114722643717</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.03446825939798597</v>
+        <v>0.0002352711861174058</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1323556827260628</v>
+        <v>0.1662702194211167</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-13.6973134290227</v>
+        <v>-13.2736736692349</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.784363159718581</v>
+        <v>-10.31142521761259</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.258261140583822</v>
+        <v>-5.312006464471948</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.065748635247166</v>
+        <v>-1.379302725815846</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7700938610522793</v>
+        <v>-0.7531564154083327</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5543835066718031</v>
+        <v>-0.5726332682462986</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3918239116337445</v>
+        <v>-0.4048208340291287</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.07708433698625436</v>
+        <v>-0.09581957166351479</v>
       </c>
     </row>
     <row r="34">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-9.231283676758906</v>
+        <v>-8.798818627799974</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.061444455049386</v>
+        <v>-7.906620727337017</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.2128250365056346</v>
+        <v>0.02095727341147588</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.022355788696064</v>
+        <v>1.95067294843976</v>
       </c>
     </row>
     <row r="37">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.485422638460721</v>
+        <v>-0.45611761645229</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4418690066313177</v>
+        <v>-0.4156269203453557</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.0009709847521611661</v>
+        <v>0.01388701768028689</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.06614602793921363</v>
+        <v>0.1348047444266968</v>
       </c>
     </row>
     <row r="40">
@@ -1100,7 +1100,7 @@
         <v>-6.614564223616737</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0.8571667896659141</v>
+        <v>0.8571667896659113</v>
       </c>
     </row>
     <row r="41">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.004634619703261</v>
+        <v>-9.094585412061688</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.845083248797537</v>
+        <v>-1.48531705096688</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-3.933636020325472</v>
+        <v>-3.85505025362243</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.612693717494794</v>
+        <v>3.653182068794945</v>
       </c>
     </row>
     <row r="43">
@@ -1142,7 +1142,7 @@
         <v>-0.2875275608448385</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.03726006248300982</v>
+        <v>0.03726006248300971</v>
       </c>
     </row>
     <row r="44">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3675625466400218</v>
+        <v>-0.374162886099351</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.0757755004922858</v>
+        <v>-0.06196799921871889</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1784637488799962</v>
+        <v>-0.1779968610688984</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1681041297483662</v>
+        <v>0.1692065442498791</v>
       </c>
     </row>
     <row r="46">
